--- a/data/stressor_magnitude_demo.xlsx
+++ b/data/stressor_magnitude_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbayly\Desktop\Projects\EN2691 CEPopMod\main\JoeModelCEShiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B98318-C400-491A-B73E-3DAFB2D11DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B501F-9643-423E-8069-38C3330C84A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C00D94F-27E3-48C9-9AD6-363C8CBE8FED}"/>
+    <workbookView xWindow="3348" yWindow="3336" windowWidth="15120" windowHeight="8700" xr2:uid="{5C00D94F-27E3-48C9-9AD6-363C8CBE8FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6601" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="130">
   <si>
     <t>HUC_ID</t>
   </si>
@@ -422,6 +422,9 @@
   <si>
     <t>Temperature_parr</t>
   </si>
+  <si>
+    <t>Comments</t>
+  </si>
 </sst>
 </file>
 
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C609AE-8BD9-48E7-939C-FB31F12B168F}">
-  <dimension ref="A1:I1649"/>
+  <dimension ref="A1:J1649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +786,7 @@
     <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,8 +814,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1701010201</v>
       </c>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1701010202</v>
       </c>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1701010203</v>
       </c>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1701010204</v>
       </c>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1701010205</v>
       </c>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1701010206</v>
       </c>
@@ -986,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1701010207</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1701010208</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1701010301</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1701010302</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1701010303</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1701010401</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1701010402</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1701010501</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1701010502</v>
       </c>
